--- a/TcGenerated.xlsx
+++ b/TcGenerated.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15040" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15104" uniqueCount="362">
   <si>
     <t>Test Description</t>
   </si>
@@ -1089,6 +1089,15 @@
   <si>
     <t>FRA_TC_000233</t>
   </si>
+  <si>
+    <t>FRA_TC_000234</t>
+  </si>
+  <si>
+    <t>fixed</t>
+  </si>
+  <si>
+    <t>eur</t>
+  </si>
 </sst>
 </file>
 
@@ -1464,7 +1473,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BL235"/>
+  <dimension ref="A1:BL236"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="64" width="20" customWidth="1"/>
@@ -47060,6 +47069,200 @@
         <v>86</v>
       </c>
     </row>
+    <row r="236" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>359</v>
+      </c>
+      <c r="B236" t="s">
+        <v>94</v>
+      </c>
+      <c r="C236" t="s">
+        <v>65</v>
+      </c>
+      <c r="D236" t="s">
+        <v>66</v>
+      </c>
+      <c r="E236" t="s">
+        <v>67</v>
+      </c>
+      <c r="F236" t="s">
+        <v>68</v>
+      </c>
+      <c r="G236" t="s">
+        <v>69</v>
+      </c>
+      <c r="H236" t="s">
+        <v>70</v>
+      </c>
+      <c r="I236" t="s">
+        <v>71</v>
+      </c>
+      <c r="J236" t="s">
+        <v>72</v>
+      </c>
+      <c r="K236" t="s">
+        <v>360</v>
+      </c>
+      <c r="L236" t="s">
+        <v>361</v>
+      </c>
+      <c r="M236" t="s">
+        <v>75</v>
+      </c>
+      <c r="N236" t="s">
+        <v>76</v>
+      </c>
+      <c r="O236" t="s">
+        <v>69</v>
+      </c>
+      <c r="P236" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q236" t="s">
+        <v>77</v>
+      </c>
+      <c r="R236" t="s">
+        <v>78</v>
+      </c>
+      <c r="S236" t="s">
+        <v>79</v>
+      </c>
+      <c r="T236" t="s">
+        <v>80</v>
+      </c>
+      <c r="U236" t="s">
+        <v>81</v>
+      </c>
+      <c r="V236" t="s">
+        <v>69</v>
+      </c>
+      <c r="W236" t="s">
+        <v>65</v>
+      </c>
+      <c r="X236" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y236" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z236" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA236" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB236" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC236" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD236" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE236" t="s">
+        <v>85</v>
+      </c>
+      <c r="AF236" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG236" t="s">
+        <v>65</v>
+      </c>
+      <c r="AH236" t="s">
+        <v>65</v>
+      </c>
+      <c r="AI236" t="s">
+        <v>65</v>
+      </c>
+      <c r="AJ236" t="s">
+        <v>65</v>
+      </c>
+      <c r="AK236" t="s">
+        <v>65</v>
+      </c>
+      <c r="AL236" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM236" t="s">
+        <v>65</v>
+      </c>
+      <c r="AN236" t="s">
+        <v>65</v>
+      </c>
+      <c r="AO236" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP236" t="s">
+        <v>65</v>
+      </c>
+      <c r="AQ236" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR236" t="s">
+        <v>65</v>
+      </c>
+      <c r="AS236" t="s">
+        <v>65</v>
+      </c>
+      <c r="AT236" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU236" t="s">
+        <v>86</v>
+      </c>
+      <c r="AV236" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW236" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX236" t="s">
+        <v>65</v>
+      </c>
+      <c r="AY236" t="s">
+        <v>65</v>
+      </c>
+      <c r="AZ236" t="s">
+        <v>65</v>
+      </c>
+      <c r="BA236" t="s">
+        <v>65</v>
+      </c>
+      <c r="BB236" t="s">
+        <v>65</v>
+      </c>
+      <c r="BC236" t="s">
+        <v>65</v>
+      </c>
+      <c r="BD236" t="s">
+        <v>65</v>
+      </c>
+      <c r="BE236" t="s">
+        <v>65</v>
+      </c>
+      <c r="BF236" t="s">
+        <v>86</v>
+      </c>
+      <c r="BG236" t="s">
+        <v>65</v>
+      </c>
+      <c r="BH236" t="s">
+        <v>65</v>
+      </c>
+      <c r="BI236" t="s">
+        <v>87</v>
+      </c>
+      <c r="BJ236" t="s">
+        <v>86</v>
+      </c>
+      <c r="BK236" t="s">
+        <v>88</v>
+      </c>
+      <c r="BL236" t="s">
+        <v>86</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
